--- a/others/tangsongjiaju.xlsx
+++ b/others/tangsongjiaju.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li/AppsDev/flashcardfromxlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li/AppsDev/flashcardfromxlsx/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54EDB3FC-7609-E146-A179-F35B71AF96C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306B9C5A-9804-224D-9CC2-051029D7DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{75B32EE3-1FE4-D547-AD49-4C259F7302E8}"/>
   </bookViews>
@@ -13748,7 +13748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2E903F-661B-8045-8AD7-1D333D51CB60}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
